--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_9.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_9.xlsx
@@ -512,144 +512,144 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9973017659378361</v>
+        <v>0.9492903009563156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8236353875466254</v>
+        <v>0.7343990058588366</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8144213246959945</v>
+        <v>0.757298498080632</v>
       </c>
       <c r="E2" t="n">
-        <v>0.997631557378611</v>
+        <v>0.9759327268805209</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01123147131806052</v>
+        <v>0.1777633866008732</v>
       </c>
       <c r="G2" t="n">
-        <v>1.179350975560086</v>
+        <v>1.776075070802084</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6638041610925758</v>
+        <v>0.8681291997239347</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005082734959460425</v>
+        <v>0.1117332778490236</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4042086784916055</v>
+        <v>1.364703881671275</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1059786361398396</v>
+        <v>0.4216199551739376</v>
       </c>
       <c r="L2" t="n">
-        <v>1.172686979978486</v>
+        <v>0.9309484949192383</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1076476937192726</v>
+        <v>0.4282600480025969</v>
       </c>
       <c r="N2" t="n">
-        <v>138.9780710041349</v>
+        <v>37.45460380347446</v>
       </c>
       <c r="O2" t="n">
-        <v>280.3132435473514</v>
+        <v>74.41918739170028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_7</t>
+          <t>model_1_9_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9972008025152732</v>
+        <v>0.9492920629703647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8235578738902444</v>
+        <v>0.7343829654331792</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8143355373085656</v>
+        <v>0.7572001410457568</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9975511258968727</v>
+        <v>0.9759532058467213</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01165173425988225</v>
+        <v>0.1777572098419785</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179869309737222</v>
+        <v>1.776182333202315</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6641110176031703</v>
+        <v>0.8684810171346145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005255342858161528</v>
+        <v>0.111638203429534</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4110607960801116</v>
+        <v>1.364947725155023</v>
       </c>
       <c r="K3" t="n">
-        <v>0.10794319922942</v>
+        <v>0.4216126300788183</v>
       </c>
       <c r="L3" t="n">
-        <v>1.179148639022515</v>
+        <v>0.930950894257518</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1096431967136712</v>
+        <v>0.4282526075445519</v>
       </c>
       <c r="N3" t="n">
-        <v>138.9046004930806</v>
+        <v>37.45467329884499</v>
       </c>
       <c r="O3" t="n">
-        <v>280.239773036297</v>
+        <v>74.41925688707082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_8</t>
+          <t>model_1_9_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9972459970638384</v>
+        <v>0.9492062616620506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8235475389313476</v>
+        <v>0.7338007956319711</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8143842471841378</v>
+        <v>0.7567706592146777</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9975725374808994</v>
+        <v>0.9759796220063767</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01146361074492815</v>
+        <v>0.1780579872362115</v>
       </c>
       <c r="G4" t="n">
-        <v>1.179938419654953</v>
+        <v>1.780075305343639</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6639367852026092</v>
+        <v>0.8700172487415975</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005209393082690056</v>
+        <v>0.1115155653520156</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4077320912774278</v>
+        <v>1.365964725442949</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1070682527406147</v>
+        <v>0.4219691780642414</v>
       </c>
       <c r="L4" t="n">
-        <v>1.176256187914341</v>
+        <v>0.9308340584334306</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1087544706922929</v>
+        <v>0.4286147708043282</v>
       </c>
       <c r="N4" t="n">
-        <v>138.9371550871848</v>
+        <v>37.4512920215039</v>
       </c>
       <c r="O4" t="n">
-        <v>280.2723276304012</v>
+        <v>74.41587560972971</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9971641223793409</v>
+        <v>0.949158137988821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8235209960345545</v>
+        <v>0.733528801640755</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8142650974139551</v>
+        <v>0.7567115453841012</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9975574144505306</v>
+        <v>0.9759595392083306</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01180441630494395</v>
+        <v>0.1782266852819563</v>
       </c>
       <c r="G5" t="n">
-        <v>1.180115912128027</v>
+        <v>1.781894130415318</v>
       </c>
       <c r="H5" t="n">
-        <v>0.664362977021852</v>
+        <v>0.8702286954859523</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005241847470419002</v>
+        <v>0.111608800545007</v>
       </c>
       <c r="J5" t="n">
-        <v>0.413378671677158</v>
+        <v>1.366031710498794</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1086481307015632</v>
+        <v>0.4221690245410673</v>
       </c>
       <c r="L5" t="n">
-        <v>1.18149616772218</v>
+        <v>0.9307685283252031</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1103592301518277</v>
+        <v>0.4288177646633909</v>
       </c>
       <c r="N5" t="n">
-        <v>138.8785631087973</v>
+        <v>37.44939805219941</v>
       </c>
       <c r="O5" t="n">
-        <v>280.2137356520137</v>
+        <v>74.41398164042523</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9970998742977266</v>
+        <v>0.9488943647933279</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8234421745301864</v>
+        <v>0.7320262879246331</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8142202262092697</v>
+        <v>0.7560754210653247</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9974831382889522</v>
+        <v>0.9759307769417287</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0120718506598839</v>
+        <v>0.1791513450099696</v>
       </c>
       <c r="G6" t="n">
-        <v>1.180642991890676</v>
+        <v>1.791941446553464</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6645234787192301</v>
+        <v>0.872504075289609</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00540124590367625</v>
+        <v>0.1117423305178394</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4177550100745617</v>
+        <v>1.366924917244866</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1098719739509758</v>
+        <v>0.4232627375637615</v>
       </c>
       <c r="L6" t="n">
-        <v>1.185608044945496</v>
+        <v>0.9304093478036806</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1116023477090241</v>
+        <v>0.4299287025728806</v>
       </c>
       <c r="N6" t="n">
-        <v>138.8337578567561</v>
+        <v>37.43904865505715</v>
       </c>
       <c r="O6" t="n">
-        <v>280.1689303999726</v>
+        <v>74.40363224328297</v>
       </c>
     </row>
     <row r="7">
@@ -757,144 +757,144 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9970426659721058</v>
+        <v>0.9486535433375025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8233828465097311</v>
+        <v>0.7307908028455745</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8141713052552377</v>
+        <v>0.7553806871062068</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9974138691637833</v>
+        <v>0.9758967031963531</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01230998184256133</v>
+        <v>0.1799955471717061</v>
       </c>
       <c r="G7" t="n">
-        <v>1.181039718636641</v>
+        <v>1.800203140966015</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6646984661352022</v>
+        <v>0.874989098378384</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005549899116098479</v>
+        <v>0.1119005192432718</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4217594011007608</v>
+        <v>1.368549360859814</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1109503575594118</v>
+        <v>0.4242588209710036</v>
       </c>
       <c r="L7" t="n">
-        <v>1.18926937778523</v>
+        <v>0.9300814207148971</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1126977147813049</v>
+        <v>0.4309404732980687</v>
       </c>
       <c r="N7" t="n">
-        <v>138.7946896276044</v>
+        <v>37.42964633266576</v>
       </c>
       <c r="O7" t="n">
-        <v>280.1298621708208</v>
+        <v>74.39422992089158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_2</t>
+          <t>model_1_9_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9969499887405201</v>
+        <v>0.9486208217824933</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8233178556671839</v>
+        <v>0.7306400277972103</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8139609640226393</v>
+        <v>0.7553103555591528</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9973132575946029</v>
+        <v>0.9758832612529142</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01269575329322539</v>
+        <v>0.180110252929046</v>
       </c>
       <c r="G8" t="n">
-        <v>1.18147431270001</v>
+        <v>1.801211374408682</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6654508445279215</v>
+        <v>0.8752406702441387</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00576581396891409</v>
+        <v>0.1119629240031978</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4291062893473412</v>
+        <v>1.368744636710788</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1126754334059798</v>
+        <v>0.4243939831442547</v>
       </c>
       <c r="L8" t="n">
-        <v>1.195200720606714</v>
+        <v>0.9300368637038207</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1144499588480132</v>
+        <v>0.4310777641404359</v>
       </c>
       <c r="N8" t="n">
-        <v>138.7329754555948</v>
+        <v>37.42837219866195</v>
       </c>
       <c r="O8" t="n">
-        <v>280.0681479988112</v>
+        <v>74.39295578688777</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_3</t>
+          <t>model_1_9_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9969853404215032</v>
+        <v>0.9477785047332945</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8233095788919809</v>
+        <v>0.7273484892252249</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8140340340973814</v>
+        <v>0.755297033170518</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9973598091017927</v>
+        <v>0.9751433995353432</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01254860097735512</v>
+        <v>0.1830630042582985</v>
       </c>
       <c r="G9" t="n">
-        <v>1.181529659533904</v>
+        <v>1.82322190799569</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6651894771074154</v>
+        <v>0.8752883236558091</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005665913312308687</v>
+        <v>0.1153977616122956</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4255108185415365</v>
+        <v>1.367987170650927</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1120205381943647</v>
+        <v>0.4278586264857804</v>
       </c>
       <c r="L9" t="n">
-        <v>1.192938213023794</v>
+        <v>0.9288898787857627</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1137847496914702</v>
+        <v>0.4345969721512178</v>
       </c>
       <c r="N9" t="n">
-        <v>138.7562921910524</v>
+        <v>37.39584979965784</v>
       </c>
       <c r="O9" t="n">
-        <v>280.0914647342688</v>
+        <v>74.36043338788366</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9969040202773385</v>
+        <v>0.9477655528968355</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8232513182432658</v>
+        <v>0.7272817398925853</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8138145859768521</v>
+        <v>0.7551505725539155</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9972847230913733</v>
+        <v>0.9751609211875952</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01288709824843144</v>
+        <v>0.18310840705806</v>
       </c>
       <c r="G10" t="n">
-        <v>1.181919248760127</v>
+        <v>1.823668261090403</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6659744303102159</v>
+        <v>0.8758122047891217</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005827049700700962</v>
+        <v>0.1153164166410672</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4319399531429055</v>
+        <v>1.368325992507307</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1135213559134643</v>
+        <v>0.4279116813760288</v>
       </c>
       <c r="L10" t="n">
-        <v>1.198142702250337</v>
+        <v>0.9288722422424994</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1153092037893783</v>
+        <v>0.4346508626029522</v>
       </c>
       <c r="N10" t="n">
-        <v>138.703057207729</v>
+        <v>37.39535382647598</v>
       </c>
       <c r="O10" t="n">
-        <v>280.0382297509454</v>
+        <v>74.3599374147018</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9968481338692001</v>
+        <v>0.9462844004848949</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8232168033551649</v>
+        <v>0.7221306497011066</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8137305685717356</v>
+        <v>0.7516889969519367</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9972423226279035</v>
+        <v>0.9744865628563497</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01311972691429723</v>
+        <v>0.1883006025114738</v>
       </c>
       <c r="G11" t="n">
-        <v>1.182150049975784</v>
+        <v>1.858113624919411</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6662749556967082</v>
+        <v>0.8881940600037139</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00591804211741778</v>
+        <v>0.1184471521598277</v>
       </c>
       <c r="J11" t="n">
-        <v>0.435210978128288</v>
+        <v>1.372937316067593</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1145413764292067</v>
+        <v>0.4339361733152398</v>
       </c>
       <c r="L11" t="n">
-        <v>1.201719432371192</v>
+        <v>0.9268553538517719</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1163452886085972</v>
+        <v>0.4407702342679233</v>
       </c>
       <c r="N11" t="n">
-        <v>138.6672766202837</v>
+        <v>37.33943128716371</v>
       </c>
       <c r="O11" t="n">
-        <v>280.0024491635002</v>
+        <v>74.30401487538953</v>
       </c>
     </row>
   </sheetData>
